--- a/AntJaw2_Wprksheet.xlsx
+++ b/AntJaw2_Wprksheet.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16729"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy\Desktop\single-matrix-network-2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="15" windowWidth="15195" windowHeight="8190"/>
   </bookViews>
@@ -66,8 +71,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +193,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -234,7 +247,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,9 +279,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,6 +331,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -475,14 +524,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:P16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="4" width="9.140625" style="2"/>
@@ -491,7 +540,7 @@
     <col min="17" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,7 +587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="7" customFormat="1" ht="14.25">
+    <row r="2" spans="1:16" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -588,7 +637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="7" customFormat="1" ht="14.25">
+    <row r="3" spans="1:16" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -638,7 +687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="7" customFormat="1" ht="14.25">
+    <row r="4" spans="1:16" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -688,7 +737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="11" customFormat="1">
+    <row r="5" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
@@ -738,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="11" customFormat="1">
+    <row r="6" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -788,7 +837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="11" customFormat="1">
+    <row r="7" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
@@ -838,7 +887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="11" customFormat="1">
+    <row r="8" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
@@ -888,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="11" customFormat="1">
+    <row r="9" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
@@ -938,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="11" customFormat="1">
+    <row r="10" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>8</v>
       </c>
@@ -988,7 +1037,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="11" customFormat="1">
+    <row r="11" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
@@ -1038,7 +1087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="11" customFormat="1">
+    <row r="12" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
@@ -1088,7 +1137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="11" customFormat="1">
+    <row r="13" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
@@ -1138,7 +1187,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="11" customFormat="1">
+    <row r="14" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>12</v>
       </c>
@@ -1188,7 +1237,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="7" customFormat="1" ht="14.25">
+    <row r="15" spans="1:16" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -1238,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="7" customFormat="1" ht="14.25">
+    <row r="16" spans="1:16" s="7" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1295,24 +1344,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
